--- a/data/georgia_census/samegrelo/poti/healthcare_staff.xlsx
+++ b/data/georgia_census/samegrelo/poti/healthcare_staff.xlsx
@@ -1368,13 +1368,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEA1E9F7-1064-46DF-8A18-AC4064C79316}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA427F9D-4072-4362-AA3D-45CE38D36DD0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F55F9AA6-F413-45AD-9AE9-E0715DAE3E8E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09823B2E-6C3C-4060-BD3C-3232DC2B7025}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72351320-0B7C-46AA-B2A7-AE319526EE8D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F75BA9BB-EEEA-4E86-8DE9-15B9F3ED81C9}"/>
 </file>